--- a/第一期/杭州-咫尺/3-Day5/openpyxl_demo.xlsx
+++ b/第一期/杭州-咫尺/3-Day5/openpyxl_demo.xlsx
@@ -17,21 +17,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
   <si>
-    <t>开源优测</t>
+    <t>DeepTest</t>
   </si>
   <si>
     <t>公众号: DeepTest</t>
   </si>
   <si>
-    <t>开源优测1</t>
-  </si>
-  <si>
     <t>大数据测试</t>
-  </si>
-  <si>
-    <t>开源优测2</t>
   </si>
   <si>
     <t>快学Python3</t>
@@ -439,42 +433,42 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -498,42 +492,42 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
